--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3301.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3301.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9475832048790064</v>
+        <v>0.4128796458244324</v>
       </c>
       <c r="B1">
-        <v>1.68426006559809</v>
+        <v>0.3068462014198303</v>
       </c>
       <c r="C1">
-        <v>2.422925600281686</v>
+        <v>0.3703226745128632</v>
       </c>
       <c r="D1">
-        <v>2.854425261940731</v>
+        <v>3.905551671981812</v>
       </c>
       <c r="E1">
-        <v>3.100739486073517</v>
+        <v>1.653122663497925</v>
       </c>
     </row>
   </sheetData>
